--- a/chapter 3/TableReferences.xlsx
+++ b/chapter 3/TableReferences.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Excel 2019 Intro to F&amp;Fs\Exercise Files\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F22CEA9-F697-44A4-A9A6-712B407C1362}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DCABB7-37B3-B740-8610-AFE88331C3A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9375" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="23560" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Total Sales</t>
+  </si>
+  <si>
+    <t>january</t>
   </si>
 </sst>
 </file>
@@ -198,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesData" displayName="SalesData" ref="A1:D25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesData" displayName="SalesData" ref="A1:D26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
@@ -531,23 +534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,9 +566,12 @@
       <c r="F1" s="3">
         <v>43040</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <f>D12</f>
+        <v>435335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -581,9 +587,12 @@
       <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <f>SUM(SalesData[Sales])</f>
+        <v>9340467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -597,7 +606,7 @@
         <v>593596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -611,7 +620,7 @@
         <v>328774</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -625,7 +634,7 @@
         <v>262849</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -639,7 +648,7 @@
         <v>381151</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -653,7 +662,7 @@
         <v>333744</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -667,7 +676,7 @@
         <v>264409</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -681,7 +690,7 @@
         <v>339825</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -695,7 +704,7 @@
         <v>518740</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -709,7 +718,7 @@
         <v>431577</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -723,7 +732,7 @@
         <v>435335</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -737,7 +746,7 @@
         <v>229783</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -751,7 +760,7 @@
         <v>282777</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -765,7 +774,7 @@
         <v>257204</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -779,7 +788,7 @@
         <v>356725</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -793,7 +802,7 @@
         <v>496955</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -807,7 +816,7 @@
         <v>298745</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -821,7 +830,7 @@
         <v>455379</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -835,7 +844,7 @@
         <v>263180</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -849,7 +858,7 @@
         <v>578052</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -863,7 +872,7 @@
         <v>275113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -877,7 +886,7 @@
         <v>449151</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -891,7 +900,7 @@
         <v>401541</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -903,6 +912,20 @@
       </c>
       <c r="D25" s="2">
         <v>587498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>234523</v>
       </c>
     </row>
   </sheetData>
